--- a/Barabanca/src/test/resources/supertrend-parsed-results/supertrendWithRsiParsedResults_v0.xlsx
+++ b/Barabanca/src/test/resources/supertrend-parsed-results/supertrendWithRsiParsedResults_v0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Vizerium\java_workspace\git\vizerium\Barabanca\src\test\resources\supertrend-parsed-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407FE9D0-C0FF-40F2-9CDB-74AA0B9F84A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C096D6-8485-4990-9345-3074CB56DD18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9540" yWindow="4200" windowWidth="11928" windowHeight="7596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supertrendWithRsiParsedResults_" sheetId="1" r:id="rId1"/>
@@ -3314,7 +3314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>180</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>180</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>180</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>180</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>180</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>180</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>180</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>180</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>180</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>180</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>180</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>180</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>180</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>180</v>
       </c>
@@ -11843,7 +11843,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="1hour"/>
+        <filter val="15min"/>
       </filters>
     </filterColumn>
   </autoFilter>
